--- a/exp2/case01/report/correlation/SimpleCorrPairAnalysis-strong.xlsx
+++ b/exp2/case01/report/correlation/SimpleCorrPairAnalysis-strong.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="strong_pearson_35" r:id="rId3" sheetId="1"/>
+    <sheet name="strong_spearman_43" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
-  <si>
-    <t>Correlation information for NroDesiredInteractions - Intrinsic Motivation in ont-gamified.Apprentice using the method: pearson</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
+  <si>
+    <t>Correlation information for DiffScore - Interest/Enjoyment in non-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -23,10 +23,10 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>NroDesiredInteractions</t>
-  </si>
-  <si>
-    <t>Intrinsic Motivation</t>
+    <t>DiffScore</t>
+  </si>
+  <si>
+    <t>Interest/Enjoyment</t>
   </si>
   <si>
     <t>Matrix of t-test value</t>
@@ -50,13 +50,13 @@
     <t>p</t>
   </si>
   <si>
-    <t>NrDsI-IntrM</t>
-  </si>
-  <si>
-    <t>Data source for NroDesiredInteractions - Intrinsic Motivation in ont-gamified.Apprentice</t>
-  </si>
-  <si>
-    <t>Data full source for NroDesiredInteractions - Intrinsic Motivation in ont-gamified.Apprentice</t>
+    <t>DffSc-Int/E</t>
+  </si>
+  <si>
+    <t>Data source for DiffScore - Interest/Enjoyment in non-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for DiffScore - Interest/Enjoyment in non-gamified.Master</t>
   </si>
   <si>
     <t>UserID</t>
@@ -77,58 +77,31 @@
     <t>PlayerRole</t>
   </si>
   <si>
-    <t>ont-gamified</t>
-  </si>
-  <si>
-    <t>Grupo Afrodite</t>
-  </si>
-  <si>
-    <t>Grupo Cronus</t>
-  </si>
-  <si>
-    <t>Grupo Morfeu</t>
-  </si>
-  <si>
-    <t>Grupo Hélio</t>
-  </si>
-  <si>
-    <t>Grupo Ares</t>
-  </si>
-  <si>
-    <t>Grupo Zeus</t>
-  </si>
-  <si>
-    <t>Grupo Urano</t>
-  </si>
-  <si>
-    <t>Grupo Hefesto</t>
-  </si>
-  <si>
-    <t>Grupo Gaia</t>
-  </si>
-  <si>
-    <t>Grupo Apolo</t>
-  </si>
-  <si>
-    <t>Grupo Hades</t>
-  </si>
-  <si>
-    <t>Grupo Hermes</t>
-  </si>
-  <si>
-    <t>Grupo Caronte</t>
-  </si>
-  <si>
-    <t>Grupo Hera</t>
-  </si>
-  <si>
-    <t>Apprentice</t>
-  </si>
-  <si>
-    <t>Yee Achiever</t>
-  </si>
-  <si>
-    <t>Yee Socializer</t>
+    <t>non-gamified</t>
+  </si>
+  <si>
+    <t>Grupo Team 10</t>
+  </si>
+  <si>
+    <t>Grupo Team 3</t>
+  </si>
+  <si>
+    <t>Grupo  Team 6</t>
+  </si>
+  <si>
+    <t>Grupo Team 12</t>
+  </si>
+  <si>
+    <t>Grupo Team 8</t>
+  </si>
+  <si>
+    <t>Grupo Team 14</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -886,7 +859,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>0.7242459977653981</v>
+        <v>-0.8696565534786727</v>
       </c>
     </row>
     <row r="7">
@@ -894,10 +867,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="31">
-        <v>0.7242459977653981</v>
+        <v>-0.8696565534786727</v>
       </c>
       <c r="C7" t="n" s="32">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -932,7 +905,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="52">
-        <v>3.638448243028483</v>
+        <v>-3.5233213170882216</v>
       </c>
     </row>
     <row r="13">
@@ -940,10 +913,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="51">
-        <v>3.638448243028483</v>
-      </c>
-      <c r="C13" t="e" s="52">
-        <v>#DIV/0!</v>
+        <v>-3.5233213170882216</v>
+      </c>
+      <c r="C13" t="n" s="52">
+        <v>1.3421772799999999E8</v>
       </c>
     </row>
     <row r="14">
@@ -978,7 +951,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="72">
-        <v>0.003397704444857874</v>
+        <v>0.024376891685690794</v>
       </c>
     </row>
     <row r="19">
@@ -986,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="71">
-        <v>0.003397704444857874</v>
+        <v>0.024376891685690794</v>
       </c>
       <c r="C19" t="n" s="72">
         <v>0.0</v>
@@ -1027,16 +1000,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="n" s="91">
-        <v>0.31453156544142896</v>
+        <v>-0.9856008638855045</v>
       </c>
       <c r="C24" t="n" s="92">
-        <v>0.7242459977653981</v>
+        <v>-0.8696565534786727</v>
       </c>
       <c r="D24" t="n" s="93">
-        <v>0.9064889267841362</v>
+        <v>-0.1974549415680596</v>
       </c>
       <c r="E24" t="n" s="94">
-        <v>0.003397704444857874</v>
+        <v>0.024376891685690794</v>
       </c>
     </row>
     <row r="25">
@@ -1064,519 +1037,247 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="113">
-        <v>1.0</v>
+        <v>0.38055555555555465</v>
       </c>
       <c r="B29" t="n" s="114">
-        <v>0.5039843426371508</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="113">
-        <v>0.0</v>
+        <v>0.5333333333333332</v>
       </c>
       <c r="B30" t="n" s="114">
-        <v>-0.18058836809245482</v>
+        <v>3.8333333333333335</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="113">
-        <v>0.0</v>
+        <v>0.4222222222222225</v>
       </c>
       <c r="B31" t="n" s="114">
-        <v>-0.010251073065152789</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="113">
-        <v>1.0</v>
+        <v>0.625</v>
       </c>
       <c r="B32" t="n" s="114">
-        <v>-0.24522198826993744</v>
+        <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="113">
-        <v>1.0</v>
+        <v>0.45555555555555394</v>
       </c>
       <c r="B33" t="n" s="114">
-        <v>-0.04552718026191414</v>
+        <v>3.8333333333333335</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="113">
-        <v>0.0</v>
+        <v>0.6083333333333343</v>
       </c>
       <c r="B34" t="n" s="114">
-        <v>0.10029283693157723</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="B35" t="n" s="114">
-        <v>0.06257576207595299</v>
+      <c r="A35" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n" s="113">
-        <v>1.0</v>
-      </c>
-      <c r="B36" t="n" s="114">
-        <v>-0.40093977182104457</v>
+      <c r="A36" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n" s="113">
-        <v>1.0</v>
-      </c>
-      <c r="B37" t="n" s="114">
-        <v>0.6209440162747972</v>
+      <c r="A37" t="s" s="118">
+        <v>14</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n" s="113">
-        <v>4.0</v>
-      </c>
-      <c r="B38" t="n" s="114">
-        <v>3.1637983458369217</v>
+      <c r="A38" t="s" s="132">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s" s="132">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s" s="132">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s" s="132">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s" s="132">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s" s="132">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s" s="132">
+        <v>4</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n" s="113">
-        <v>1.0</v>
-      </c>
-      <c r="B39" t="n" s="114">
-        <v>0.40039274476376646</v>
+      <c r="A39" t="n" s="133">
+        <v>10181.0</v>
+      </c>
+      <c r="B39" t="n" s="134">
+        <v>1.0276866E7</v>
+      </c>
+      <c r="C39" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s" s="136">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s" s="137">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s" s="138">
+        <v>29</v>
+      </c>
+      <c r="G39" t="n" s="139">
+        <v>0.38055555555555465</v>
+      </c>
+      <c r="H39" t="n" s="140">
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="B40" t="n" s="114">
-        <v>-0.1476179298406524</v>
+      <c r="A40" t="n" s="133">
+        <v>10188.0</v>
+      </c>
+      <c r="B40" t="n" s="134">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C40" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s" s="136">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s" s="137">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s" s="138">
+        <v>29</v>
+      </c>
+      <c r="G40" t="n" s="139">
+        <v>0.5333333333333332</v>
+      </c>
+      <c r="H40" t="n" s="140">
+        <v>3.8333333333333335</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="B41" t="n" s="114">
-        <v>1.7311269792905206</v>
+      <c r="A41" t="n" s="133">
+        <v>10191.0</v>
+      </c>
+      <c r="B41" t="n" s="134">
+        <v>1.0276981E7</v>
+      </c>
+      <c r="C41" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s" s="136">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s" s="137">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s" s="138">
+        <v>29</v>
+      </c>
+      <c r="G41" t="n" s="139">
+        <v>0.4222222222222225</v>
+      </c>
+      <c r="H41" t="n" s="140">
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="B42" t="n" s="114">
-        <v>-0.6108479469757275</v>
+      <c r="A42" t="n" s="133">
+        <v>10219.0</v>
+      </c>
+      <c r="B42" t="n" s="134">
+        <v>1.0276831E7</v>
+      </c>
+      <c r="C42" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s" s="136">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s" s="137">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s" s="138">
+        <v>29</v>
+      </c>
+      <c r="G42" t="n" s="139">
+        <v>0.625</v>
+      </c>
+      <c r="H42" t="n" s="140">
+        <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s">
-        <v>1</v>
+      <c r="A43" t="n" s="133">
+        <v>10226.0</v>
+      </c>
+      <c r="B43" t="n" s="134">
+        <v>1.0310342E7</v>
+      </c>
+      <c r="C43" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s" s="136">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s" s="137">
+        <v>28</v>
+      </c>
+      <c r="F43" t="s" s="138">
+        <v>29</v>
+      </c>
+      <c r="G43" t="n" s="139">
+        <v>0.45555555555555394</v>
+      </c>
+      <c r="H43" t="n" s="140">
+        <v>3.8333333333333335</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="118">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="132">
-        <v>15</v>
-      </c>
-      <c r="B46" t="s" s="132">
-        <v>16</v>
-      </c>
-      <c r="C46" t="s" s="132">
-        <v>17</v>
-      </c>
-      <c r="D46" t="s" s="132">
-        <v>18</v>
-      </c>
-      <c r="E46" t="s" s="132">
-        <v>19</v>
-      </c>
-      <c r="F46" t="s" s="132">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s" s="132">
-        <v>3</v>
-      </c>
-      <c r="H46" t="s" s="132">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="133">
-        <v>10170.0</v>
-      </c>
-      <c r="B47" t="n" s="134">
-        <v>1.0260351E7</v>
-      </c>
-      <c r="C47" t="s" s="135">
+      <c r="A44" t="n" s="133">
+        <v>10230.0</v>
+      </c>
+      <c r="B44" t="n" s="134">
+        <v>1.0351992E7</v>
+      </c>
+      <c r="C44" t="s" s="135">
         <v>21</v>
       </c>
-      <c r="D47" t="s" s="136">
-        <v>22</v>
-      </c>
-      <c r="E47" t="s" s="137">
-        <v>36</v>
-      </c>
-      <c r="F47" t="s" s="138">
-        <v>37</v>
-      </c>
-      <c r="G47" t="n" s="139">
-        <v>1.0</v>
-      </c>
-      <c r="H47" t="n" s="140">
-        <v>0.5039843426371508</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="133">
-        <v>10176.0</v>
-      </c>
-      <c r="B48" t="n" s="134">
-        <v>1.0276949E7</v>
-      </c>
-      <c r="C48" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D48" t="s" s="136">
-        <v>23</v>
-      </c>
-      <c r="E48" t="s" s="137">
-        <v>36</v>
-      </c>
-      <c r="F48" t="s" s="138">
-        <v>37</v>
-      </c>
-      <c r="G48" t="n" s="139">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="140">
-        <v>-0.18058836809245482</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="133">
-        <v>10178.0</v>
-      </c>
-      <c r="B49" t="n" s="134">
-        <v>8656201.0</v>
-      </c>
-      <c r="C49" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D49" t="s" s="136">
-        <v>24</v>
-      </c>
-      <c r="E49" t="s" s="137">
-        <v>36</v>
-      </c>
-      <c r="F49" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G49" t="n" s="139">
-        <v>0.0</v>
-      </c>
-      <c r="H49" t="n" s="140">
-        <v>-0.010251073065152789</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n" s="133">
-        <v>10183.0</v>
-      </c>
-      <c r="B50" t="n" s="134">
-        <v>1.035203E7</v>
-      </c>
-      <c r="C50" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D50" t="s" s="136">
-        <v>25</v>
-      </c>
-      <c r="E50" t="s" s="137">
-        <v>36</v>
-      </c>
-      <c r="F50" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G50" t="n" s="139">
-        <v>1.0</v>
-      </c>
-      <c r="H50" t="n" s="140">
-        <v>-0.24522198826993744</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="133">
-        <v>10186.0</v>
-      </c>
-      <c r="B51" t="n" s="134">
-        <v>1.0310551E7</v>
-      </c>
-      <c r="C51" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D51" t="s" s="136">
-        <v>26</v>
-      </c>
-      <c r="E51" t="s" s="137">
-        <v>36</v>
-      </c>
-      <c r="F51" t="s" s="138">
-        <v>37</v>
-      </c>
-      <c r="G51" t="n" s="139">
-        <v>1.0</v>
-      </c>
-      <c r="H51" t="n" s="140">
-        <v>-0.04552718026191414</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="133">
-        <v>10190.0</v>
-      </c>
-      <c r="B52" t="n" s="134">
-        <v>1.0276907E7</v>
-      </c>
-      <c r="C52" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D52" t="s" s="136">
+      <c r="D44" t="s" s="136">
         <v>27</v>
       </c>
-      <c r="E52" t="s" s="137">
-        <v>36</v>
-      </c>
-      <c r="F52" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G52" t="n" s="139">
-        <v>0.0</v>
-      </c>
-      <c r="H52" t="n" s="140">
-        <v>0.10029283693157723</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="133">
-        <v>10195.0</v>
-      </c>
-      <c r="B53" t="n" s="134">
-        <v>1.0351971E7</v>
-      </c>
-      <c r="C53" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D53" t="s" s="136">
+      <c r="E44" t="s" s="137">
         <v>28</v>
       </c>
-      <c r="E53" t="s" s="137">
-        <v>36</v>
-      </c>
-      <c r="F53" t="s" s="138">
-        <v>37</v>
-      </c>
-      <c r="G53" t="n" s="139">
-        <v>0.0</v>
-      </c>
-      <c r="H53" t="n" s="140">
-        <v>0.06257576207595299</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n" s="133">
-        <v>10196.0</v>
-      </c>
-      <c r="B54" t="n" s="134">
-        <v>1.0310655E7</v>
-      </c>
-      <c r="C54" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D54" t="s" s="136">
+      <c r="F44" t="s" s="138">
         <v>29</v>
       </c>
-      <c r="E54" t="s" s="137">
-        <v>36</v>
-      </c>
-      <c r="F54" t="s" s="138">
-        <v>37</v>
-      </c>
-      <c r="G54" t="n" s="139">
-        <v>1.0</v>
-      </c>
-      <c r="H54" t="n" s="140">
-        <v>-0.40093977182104457</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n" s="133">
-        <v>10197.0</v>
-      </c>
-      <c r="B55" t="n" s="134">
-        <v>1.0276661E7</v>
-      </c>
-      <c r="C55" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D55" t="s" s="136">
-        <v>30</v>
-      </c>
-      <c r="E55" t="s" s="137">
-        <v>36</v>
-      </c>
-      <c r="F55" t="s" s="138">
-        <v>37</v>
-      </c>
-      <c r="G55" t="n" s="139">
-        <v>1.0</v>
-      </c>
-      <c r="H55" t="n" s="140">
-        <v>0.6209440162747972</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n" s="133">
-        <v>10198.0</v>
-      </c>
-      <c r="B56" t="n" s="134">
-        <v>1.0310888E7</v>
-      </c>
-      <c r="C56" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D56" t="s" s="136">
-        <v>31</v>
-      </c>
-      <c r="E56" t="s" s="137">
-        <v>36</v>
-      </c>
-      <c r="F56" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G56" t="n" s="139">
-        <v>4.0</v>
-      </c>
-      <c r="H56" t="n" s="140">
-        <v>3.1637983458369217</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n" s="133">
-        <v>10200.0</v>
-      </c>
-      <c r="B57" t="n" s="134">
-        <v>9795272.0</v>
-      </c>
-      <c r="C57" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D57" t="s" s="136">
-        <v>32</v>
-      </c>
-      <c r="E57" t="s" s="137">
-        <v>36</v>
-      </c>
-      <c r="F57" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G57" t="n" s="139">
-        <v>1.0</v>
-      </c>
-      <c r="H57" t="n" s="140">
-        <v>0.40039274476376646</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n" s="133">
-        <v>10221.0</v>
-      </c>
-      <c r="B58" t="n" s="134">
-        <v>9082496.0</v>
-      </c>
-      <c r="C58" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D58" t="s" s="136">
-        <v>33</v>
-      </c>
-      <c r="E58" t="s" s="137">
-        <v>36</v>
-      </c>
-      <c r="F58" t="s" s="138">
-        <v>37</v>
-      </c>
-      <c r="G58" t="n" s="139">
-        <v>0.0</v>
-      </c>
-      <c r="H58" t="n" s="140">
-        <v>-0.1476179298406524</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n" s="133">
-        <v>10231.0</v>
-      </c>
-      <c r="B59" t="n" s="134">
-        <v>1.0276911E7</v>
-      </c>
-      <c r="C59" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D59" t="s" s="136">
-        <v>34</v>
-      </c>
-      <c r="E59" t="s" s="137">
-        <v>36</v>
-      </c>
-      <c r="F59" t="s" s="138">
-        <v>37</v>
-      </c>
-      <c r="G59" t="n" s="139">
-        <v>0.0</v>
-      </c>
-      <c r="H59" t="n" s="140">
-        <v>1.7311269792905206</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n" s="133">
-        <v>10240.0</v>
-      </c>
-      <c r="B60" t="n" s="134">
-        <v>1.0276654E7</v>
-      </c>
-      <c r="C60" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D60" t="s" s="136">
-        <v>35</v>
-      </c>
-      <c r="E60" t="s" s="137">
-        <v>36</v>
-      </c>
-      <c r="F60" t="s" s="138">
-        <v>37</v>
-      </c>
-      <c r="G60" t="n" s="139">
-        <v>0.0</v>
-      </c>
-      <c r="H60" t="n" s="140">
-        <v>-0.6108479469757275</v>
+      <c r="G44" t="n" s="139">
+        <v>0.6083333333333343</v>
+      </c>
+      <c r="H44" t="n" s="140">
+        <v>2.6666666666666665</v>
       </c>
     </row>
   </sheetData>
